--- a/zero_shot_models/Prediction.xlsx
+++ b/zero_shot_models/Prediction.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p_ban/Machine Learning/ML for LAIF development_Additional model development based on reviewers feedback/Nat_Comm_revision/NESTED_CV_REVIEWERS_COMMENTS/Advanced_code_zero_shot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_projects\LongActingInjectables\long-acting-injectables\zero_shot_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2711614D-2DAB-4247-97B9-683CA5D6CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37960" yWindow="1980" windowWidth="33240" windowHeight="15580" xr2:uid="{BC5101D4-9311-8347-958A-AFC0C6BAC345}"/>
+    <workbookView xWindow="37965" yWindow="1980" windowWidth="33240" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction" sheetId="1" r:id="rId1"/>
@@ -103,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -156,7 +155,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,19 +466,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22157984-7AFB-FD46-B8CA-FF8D594940AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -587,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -643,7 +658,7 @@
         <v>1.0186382165048807E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -698,7 +713,7 @@
         <v>1.1342161047933534E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -753,7 +768,7 @@
         <v>6.2770189146920069E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -808,7 +823,7 @@
         <v>2.813760187235904E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -863,7 +878,7 @@
         <v>1.2888990105862526E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -918,7 +933,7 @@
         <v>3.2033690279354428E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -973,7 +988,7 @@
         <v>1.0561688307082699E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1043,7 @@
         <v>2.3454987786080645E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>2.5791402887433767E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1137,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +1207,7 @@
         <v>3.5498636653625168E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>0.11740610053398555</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>0.12873972121092417</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1354,7 +1369,7 @@
         <v>0.13896280954378715</v>
       </c>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
